--- a/thanhvien.xlsx
+++ b/thanhvien.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/howl/Downloads/lxbc_split/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3F54C31-2E2F-5F41-848F-8322D2C46A86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B145A0FF-514A-4345-B306-343D40B7F9B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4060" yWindow="660" windowWidth="25340" windowHeight="16860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="150">
   <si>
     <t>Họ tên</t>
   </si>
@@ -185,9 +185,6 @@
   </si>
   <si>
     <t>Phan Nguyễn Thiên Phúc</t>
-  </si>
-  <si>
-    <t>GioanBaotixita</t>
   </si>
   <si>
     <t>CN kỹ thuật môi trường</t>
@@ -455,13 +452,52 @@
   </si>
   <si>
     <t>https://locket.cam/nhqueee.2915</t>
+  </si>
+  <si>
+    <t>Tạ Minh Tâm</t>
+  </si>
+  <si>
+    <t>Gioan Baotixita</t>
+  </si>
+  <si>
+    <t>tam.jpg</t>
+  </si>
+  <si>
+    <t>Hà Đăng Dũng</t>
+  </si>
+  <si>
+    <t>Nông Học</t>
+  </si>
+  <si>
+    <t>Hồ Ngọc Bảo</t>
+  </si>
+  <si>
+    <t>Quản Trị Kinh Doanh</t>
+  </si>
+  <si>
+    <t>bao1.jpg</t>
+  </si>
+  <si>
+    <t>Hà Gia Huy</t>
+  </si>
+  <si>
+    <t>huy.jpg</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Tính</t>
+  </si>
+  <si>
+    <t>Luật Kinh Tế</t>
+  </si>
+  <si>
+    <t>tính.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -507,6 +543,12 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -560,7 +602,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -574,6 +616,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -919,11 +962,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S27"/>
+  <dimension ref="A1:S32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H27" sqref="H27"/>
+      <selection pane="topRight" activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -974,13 +1017,13 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -997,7 +1040,7 @@
         <v>12</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F2">
         <v>2023</v>
@@ -1006,16 +1049,16 @@
         <v>13</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -1041,10 +1084,10 @@
         <v>33</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K3" s="2"/>
     </row>
@@ -1071,11 +1114,11 @@
         <v>33</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K4" s="2"/>
     </row>
@@ -1102,11 +1145,11 @@
         <v>24</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K5" s="2"/>
     </row>
@@ -1124,19 +1167,19 @@
         <v>27</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F6">
         <v>2025</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K6" s="2"/>
     </row>
@@ -1163,11 +1206,11 @@
         <v>33</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K7" s="2"/>
     </row>
@@ -1194,13 +1237,13 @@
         <v>33</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>34</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K8" s="2"/>
     </row>
@@ -1218,7 +1261,7 @@
         <v>37</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F9">
         <v>2024</v>
@@ -1227,11 +1270,11 @@
         <v>38</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K9" s="2"/>
     </row>
@@ -1258,11 +1301,11 @@
         <v>42</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K10" s="2"/>
     </row>
@@ -1286,14 +1329,14 @@
         <v>2023</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K11" s="2"/>
     </row>
@@ -1311,7 +1354,7 @@
         <v>45</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F12">
         <v>2024</v>
@@ -1320,11 +1363,11 @@
         <v>33</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K12" s="2"/>
     </row>
@@ -1342,7 +1385,7 @@
         <v>16</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F13">
         <v>2021</v>
@@ -1351,11 +1394,11 @@
         <v>33</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K13" s="2"/>
     </row>
@@ -1382,11 +1425,11 @@
         <v>33</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K14" s="2"/>
     </row>
@@ -1395,13 +1438,13 @@
         <v>49</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>50</v>
+        <v>138</v>
       </c>
       <c r="C15">
         <v>2007</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>32</v>
@@ -1413,26 +1456,26 @@
         <v>33</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K15" s="2"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="C16" s="4">
         <v>2002</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>32</v>
@@ -1441,20 +1484,20 @@
         <v>2020</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K16" s="2"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>15</v>
@@ -1463,7 +1506,7 @@
         <v>2005</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>32</v>
@@ -1472,10 +1515,10 @@
         <v>2024</v>
       </c>
       <c r="G17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I17" s="3"/>
       <c r="J17" s="5"/>
@@ -1483,7 +1526,7 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>19</v>
@@ -1492,7 +1535,7 @@
         <v>2006</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>32</v>
@@ -1501,10 +1544,10 @@
         <v>2024</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="2"/>
@@ -1512,7 +1555,7 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>15</v>
@@ -1521,7 +1564,7 @@
         <v>2005</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>32</v>
@@ -1530,10 +1573,10 @@
         <v>2023</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I19" s="3"/>
       <c r="J19" s="2"/>
@@ -1541,7 +1584,7 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>15</v>
@@ -1550,7 +1593,7 @@
         <v>2000</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>32</v>
@@ -1559,10 +1602,10 @@
         <v>2023</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I20" s="3"/>
       <c r="J20" s="2"/>
@@ -1570,7 +1613,10 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>64</v>
+        <v>63</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>138</v>
       </c>
       <c r="C21">
         <v>2001</v>
@@ -1585,26 +1631,26 @@
         <v>2019</v>
       </c>
       <c r="G21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I21" s="3"/>
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="C22" s="3">
         <v>2002</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>32</v>
@@ -1613,17 +1659,17 @@
         <v>2020</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I22" s="3"/>
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>11</v>
@@ -1632,7 +1678,7 @@
         <v>2006</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>17</v>
@@ -1641,46 +1687,46 @@
         <v>2025</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F24" s="3">
         <v>2025</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>119</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>120</v>
       </c>
       <c r="C25" s="3">
         <v>2005</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>32</v>
@@ -1689,21 +1735,21 @@
         <v>2025</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I25" s="3"/>
       <c r="J25" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K25" s="3"/>
       <c r="L25" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="M25" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="M25" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
@@ -1714,39 +1760,39 @@
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C26" s="3">
         <v>2002</v>
       </c>
       <c r="D26" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>126</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>127</v>
       </c>
       <c r="F26" s="3">
         <v>2025</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I26" s="3"/>
       <c r="J26" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K26" s="3"/>
       <c r="L26" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="M26" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="M26" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
@@ -1757,16 +1803,16 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>132</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>133</v>
       </c>
       <c r="C27" s="3">
         <v>2005</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>32</v>
@@ -1775,27 +1821,145 @@
         <v>2025</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I27" s="3"/>
       <c r="J27" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K27" s="3"/>
       <c r="L27" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="M27" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="M27" s="2" t="s">
-        <v>137</v>
       </c>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
       <c r="R27" s="3"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C28" s="3">
+        <v>2001</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F28" s="3">
+        <v>2019</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C29" s="3">
+        <v>1999</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F29" s="3">
+        <v>2018</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="3">
+        <v>2005</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F30" s="3">
+        <v>2023</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2005</v>
+      </c>
+      <c r="D31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F31" s="3">
+        <v>2023</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C32" s="3">
+        <v>2025</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F32" s="3">
+        <v>2023</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>149</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/thanhvien.xlsx
+++ b/thanhvien.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/howl/Downloads/lxbc_split/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B145A0FF-514A-4345-B306-343D40B7F9B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43198773-D604-6E40-8E4D-B48AEF7699F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4060" yWindow="660" windowWidth="25340" windowHeight="16860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="18480" windowHeight="18460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,6 +27,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -490,7 +491,7 @@
     <t>Luật Kinh Tế</t>
   </si>
   <si>
-    <t>tính.jpg</t>
+    <t>tinh.jpg</t>
   </si>
 </sst>
 </file>

--- a/thanhvien.xlsx
+++ b/thanhvien.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/howl/Downloads/lxbc_split/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43198773-D604-6E40-8E4D-B48AEF7699F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27263927-D044-9D44-9438-B469A590B277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="660" windowWidth="18480" windowHeight="18460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="152">
   <si>
     <t>Họ tên</t>
   </si>
@@ -492,6 +492,12 @@
   </si>
   <si>
     <t>tinh.jpg</t>
+  </si>
+  <si>
+    <t>dung1.jpg</t>
+  </si>
+  <si>
+    <t>thien.jpg</t>
   </si>
 </sst>
 </file>
@@ -967,7 +973,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G37" sqref="G37"/>
+      <selection pane="topRight" activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1085,7 +1091,7 @@
         <v>33</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>89</v>
+        <v>150</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>72</v>
@@ -1548,7 +1554,7 @@
         <v>67</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="2"/>
@@ -1635,7 +1641,7 @@
         <v>54</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>102</v>
+        <v>151</v>
       </c>
       <c r="I21" s="3"/>
       <c r="J21" s="2"/>
@@ -1913,7 +1919,7 @@
         <v>54</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>144</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">

--- a/thanhvien.xlsx
+++ b/thanhvien.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/howl/Documents/lxbc.online/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{858531FC-B7A1-8342-A8E1-BC6776530534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E949A78-84A1-844B-B4FF-2175497330D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10920" yWindow="660" windowWidth="18480" windowHeight="18460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="720" yWindow="660" windowWidth="18480" windowHeight="16860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="160">
   <si>
     <t>Họ tên</t>
   </si>
@@ -494,9 +494,6 @@
     <t>tinh.jpg</t>
   </si>
   <si>
-    <t>dung1.jpg</t>
-  </si>
-  <si>
     <t>thien.jpg</t>
   </si>
   <si>
@@ -519,6 +516,12 @@
   </si>
   <si>
     <t>https://www.instagram.com/_lucc.vux_/</t>
+  </si>
+  <si>
+    <t>dungdan.jpg</t>
+  </si>
+  <si>
+    <t>minhtruong.jpg</t>
   </si>
 </sst>
 </file>
@@ -630,7 +633,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -645,9 +648,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -996,8 +996,8 @@
   <dimension ref="A1:S40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I32" sqref="I32"/>
+      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1057,8 +1057,8 @@
       <c r="M1" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="N1" s="10" t="s">
-        <v>157</v>
+      <c r="N1" s="6" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -1096,7 +1096,7 @@
         <v>117</v>
       </c>
       <c r="L2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -1122,7 +1122,7 @@
         <v>33</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>72</v>
@@ -1672,7 +1672,7 @@
         <v>54</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I21" s="3"/>
       <c r="J21" s="2"/>
@@ -2001,7 +2001,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C33" s="3">
         <v>2000</v>
@@ -2019,12 +2019,12 @@
         <v>54</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>106</v>
+        <v>159</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C34" s="3">
         <v>2000</v>
@@ -2042,12 +2042,12 @@
         <v>54</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C35" s="3">
         <v>2000</v>
@@ -2065,7 +2065,7 @@
         <v>54</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">

--- a/thanhvien.xlsx
+++ b/thanhvien.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/howl/Documents/lxbc.online/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E949A78-84A1-844B-B4FF-2175497330D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61822C5E-4B9B-744B-AAD8-07C75DAE8B38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="660" windowWidth="18480" windowHeight="16860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="18480" windowHeight="18460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="167">
   <si>
     <t>Họ tên</t>
   </si>
@@ -522,6 +522,27 @@
   </si>
   <si>
     <t>minhtruong.jpg</t>
+  </si>
+  <si>
+    <t>LXBC web developper</t>
+  </si>
+  <si>
+    <t>Phạm Huy Đức</t>
+  </si>
+  <si>
+    <t>duc.jpg</t>
+  </si>
+  <si>
+    <t>Nguyễn Long Vũ</t>
+  </si>
+  <si>
+    <t>Peter Cương</t>
+  </si>
+  <si>
+    <t>Vũ Hoàng Bảo Khôi</t>
+  </si>
+  <si>
+    <t>Đang Cập Nhập Thêm ...</t>
   </si>
 </sst>
 </file>
@@ -995,9 +1016,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="108" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1101,40 +1122,41 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C3">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="F3">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>158</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="I3" s="3"/>
       <c r="J3" s="2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C4">
         <v>2006</v>
@@ -1152,109 +1174,114 @@
         <v>33</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="I4" s="3"/>
+        <v>158</v>
+      </c>
       <c r="J4" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C5">
         <v>2006</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F5">
         <v>2024</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I5" s="3"/>
-      <c r="J5" s="5" t="s">
-        <v>74</v>
+      <c r="J5" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C6">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="F6">
-        <v>2025</v>
+        <v>2021</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>104</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="I6" s="3"/>
       <c r="J6" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C7">
-        <v>2003</v>
+        <v>2006</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F7">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>33</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="I7" s="3"/>
+        <v>105</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="J7" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="K7" s="2"/>
+      <c r="N7" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>15</v>
@@ -1263,10 +1290,10 @@
         <v>2006</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="F8">
         <v>2024</v>
@@ -1275,50 +1302,48 @@
         <v>33</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>34</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="I8" s="3"/>
       <c r="J8" s="2" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="C9">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>86</v>
       </c>
       <c r="F9">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>19</v>
@@ -1327,69 +1352,69 @@
         <v>2007</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="F10">
         <v>2025</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>15</v>
+        <v>138</v>
       </c>
       <c r="C11">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="F11">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>110</v>
+        <v>33</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="C12">
         <v>2006</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>86</v>
@@ -1398,370 +1423,398 @@
         <v>2024</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I12" s="3"/>
-      <c r="J12" s="2" t="s">
-        <v>80</v>
+      <c r="J12" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="K12" s="2"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13">
-        <v>2003</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
-        <v>16</v>
+        <v>115</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="F13">
-        <v>2021</v>
+        <v>112</v>
+      </c>
+      <c r="F13" s="3">
+        <v>2025</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="K13" s="2"/>
+        <v>114</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C14">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="F14">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>33</v>
+        <v>110</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K14" s="2"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>49</v>
+        <v>108</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C15">
-        <v>2007</v>
+        <v>11</v>
+      </c>
+      <c r="C15" s="3">
+        <v>2006</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15">
+        <v>17</v>
+      </c>
+      <c r="F15" s="3">
         <v>2025</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>33</v>
+        <v>107</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="I15" s="3"/>
-      <c r="J15" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="K15" s="2"/>
+        <v>109</v>
+      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>51</v>
+        <v>118</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="4">
-        <v>2002</v>
+        <v>119</v>
+      </c>
+      <c r="C16" s="3">
+        <v>2005</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="4">
-        <v>2020</v>
+      <c r="F16" s="3">
+        <v>2025</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>98</v>
+        <v>107</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>120</v>
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="K16" s="2"/>
+        <v>121</v>
+      </c>
+      <c r="K16" s="3"/>
+      <c r="L16" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="N16" s="3"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>55</v>
+        <v>124</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>15</v>
+        <v>119</v>
       </c>
       <c r="C17" s="3">
-        <v>2005</v>
+        <v>2002</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>56</v>
+        <v>125</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>32</v>
+        <v>126</v>
       </c>
       <c r="F17" s="3">
-        <v>2024</v>
-      </c>
-      <c r="G17" t="s">
-        <v>54</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>99</v>
+        <v>2025</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>127</v>
       </c>
       <c r="I17" s="3"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="2"/>
+      <c r="J17" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K17" s="3"/>
+      <c r="L17" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="N17" s="3"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>57</v>
+        <v>131</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>19</v>
+        <v>132</v>
       </c>
       <c r="C18" s="3">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>32</v>
       </c>
       <c r="F18" s="3">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>144</v>
+        <v>107</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>133</v>
       </c>
       <c r="I18" s="3"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
+      <c r="J18" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="K18" s="3"/>
+      <c r="L18" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="N18" s="3"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="3">
-        <v>2005</v>
+        <v>21</v>
+      </c>
+      <c r="C19">
+        <v>2006</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F19" s="3">
-        <v>2023</v>
+        <v>23</v>
+      </c>
+      <c r="F19">
+        <v>2024</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="I19" s="3"/>
-      <c r="J19" s="2"/>
+      <c r="J19" s="5" t="s">
+        <v>74</v>
+      </c>
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="3">
-        <v>2000</v>
+        <v>26</v>
+      </c>
+      <c r="C20">
+        <v>2004</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F20" s="3">
-        <v>2023</v>
+        <v>86</v>
+      </c>
+      <c r="F20">
+        <v>2025</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>54</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="I20" s="3"/>
-      <c r="J20" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>63</v>
+      <c r="A21" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C21">
-        <v>2001</v>
-      </c>
-      <c r="D21" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="4">
+        <v>2002</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F21">
-        <v>2019</v>
-      </c>
-      <c r="G21" t="s">
+      <c r="F21" s="4">
+        <v>2020</v>
+      </c>
+      <c r="G21" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="H21" s="2" t="s">
-        <v>150</v>
+      <c r="H21" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="I21" s="3"/>
-      <c r="J21" s="2"/>
+      <c r="J21" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K21" s="2"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="C22" s="3">
-        <v>2002</v>
+        <v>2005</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>32</v>
       </c>
       <c r="F22" s="3">
-        <v>2020</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>67</v>
+        <v>2024</v>
+      </c>
+      <c r="G22" t="s">
+        <v>54</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I22" s="3"/>
-      <c r="J22" s="2"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="2"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>108</v>
+        <v>57</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C23" s="3">
         <v>2006</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="F23" s="3">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>109</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="I23" s="3"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
+        <v>59</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="3">
+        <v>2005</v>
+      </c>
       <c r="D24" s="3" t="s">
-        <v>115</v>
+        <v>60</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>112</v>
+        <v>32</v>
       </c>
       <c r="F24" s="3">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>113</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I24" s="3"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
     </row>
     <row r="25" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>118</v>
+        <v>61</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>119</v>
+        <v>15</v>
       </c>
       <c r="C25" s="3">
-        <v>2005</v>
+        <v>2000</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>62</v>
@@ -1770,26 +1823,17 @@
         <v>32</v>
       </c>
       <c r="F25" s="3">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>120</v>
+        <v>54</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="I25" s="3"/>
-      <c r="J25" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="K25" s="3"/>
-      <c r="L25" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="M25" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="N25" s="3"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
@@ -1797,42 +1841,32 @@
       <c r="S25" s="3"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>124</v>
+      <c r="A26" t="s">
+        <v>63</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C26" s="3">
-        <v>2002</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="F26" s="3">
-        <v>2025</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>127</v>
+        <v>138</v>
+      </c>
+      <c r="C26">
+        <v>2001</v>
+      </c>
+      <c r="D26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F26">
+        <v>2019</v>
+      </c>
+      <c r="G26" t="s">
+        <v>54</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>150</v>
       </c>
       <c r="I26" s="3"/>
-      <c r="J26" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="K26" s="3"/>
-      <c r="L26" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="M26" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="N26" s="3"/>
+      <c r="J26" s="2"/>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
@@ -1841,41 +1875,31 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>131</v>
+        <v>64</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>132</v>
+        <v>65</v>
       </c>
       <c r="C27" s="3">
-        <v>2005</v>
+        <v>2002</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>32</v>
       </c>
       <c r="F27" s="3">
-        <v>2025</v>
+        <v>2020</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>133</v>
+        <v>67</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="I27" s="3"/>
-      <c r="J27" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="K27" s="3"/>
-      <c r="L27" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="M27" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="N27" s="3"/>
+      <c r="J27" s="2"/>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
@@ -2069,44 +2093,93 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="3"/>
-      <c r="G36" s="3"/>
+      <c r="A36" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F36" s="3">
+        <v>2017</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="3"/>
-      <c r="G37" s="3"/>
+      <c r="A37" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F37" s="3">
+        <v>2017</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="3"/>
+      <c r="A38" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F38" s="3">
+        <v>2025</v>
+      </c>
       <c r="G38" s="3"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="3"/>
+      <c r="A39" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F39" s="3">
+        <v>2017</v>
+      </c>
       <c r="G39" s="3"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="3"/>
-      <c r="G40" s="3"/>
+      <c r="A40" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>54</v>
+      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N40">
+    <sortCondition descending="1" ref="G1:G40"/>
+  </sortState>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I8" r:id="rId1" xr:uid="{E65A052D-EB5B-6849-B4BA-2B4B142FA9FD}"/>
+    <hyperlink ref="I7" r:id="rId1" xr:uid="{E65A052D-EB5B-6849-B4BA-2B4B142FA9FD}"/>
     <hyperlink ref="J2" r:id="rId2" xr:uid="{53AF7BE9-F94F-614D-A264-94D109F21102}"/>
     <hyperlink ref="I2" r:id="rId3" xr:uid="{7BDE9B62-5028-5C45-BB13-E49306AC39ED}"/>
-    <hyperlink ref="J8" r:id="rId4" xr:uid="{BFBD9656-719D-B14E-8D46-D2722CC24BF6}"/>
-    <hyperlink ref="J9" r:id="rId5" xr:uid="{0FFFE596-9D27-8E46-81F6-47EC40551829}"/>
-    <hyperlink ref="J11" r:id="rId6" xr:uid="{E4AFB121-AC94-9A40-9754-2ABE5F0FF62D}"/>
-    <hyperlink ref="J14" r:id="rId7" xr:uid="{BDC7566B-767F-7F4D-8207-6468A91B52B9}"/>
-    <hyperlink ref="J25" r:id="rId8" xr:uid="{56D6BF37-12C0-C549-90EF-818A49E7F812}"/>
-    <hyperlink ref="L25" r:id="rId9" xr:uid="{DFE7ED47-1E80-4C4A-B9FF-CC1CF7D82782}"/>
-    <hyperlink ref="M25" r:id="rId10" xr:uid="{C5F203B4-DE44-3E4B-8ABE-4C7780BC8975}"/>
-    <hyperlink ref="J26" r:id="rId11" xr:uid="{13B668FA-2C47-234E-ABBE-587373D1A3EB}"/>
-    <hyperlink ref="L26" r:id="rId12" display="https://www.instagram.com/__ngcanh/" xr:uid="{1271108E-21C0-2441-8F1D-CB20C3265895}"/>
-    <hyperlink ref="M26" r:id="rId13" xr:uid="{4545B075-55B6-F340-B0CE-76A745859243}"/>
-    <hyperlink ref="J27" r:id="rId14" xr:uid="{30C9467A-1FC1-274A-891D-63E183DE8E45}"/>
-    <hyperlink ref="L27" r:id="rId15" xr:uid="{B6E182F1-F988-6945-91BB-16F60925B25D}"/>
-    <hyperlink ref="M27" r:id="rId16" xr:uid="{A8F6CBE4-C55B-C440-97AC-5184728FFEC1}"/>
+    <hyperlink ref="J7" r:id="rId4" xr:uid="{BFBD9656-719D-B14E-8D46-D2722CC24BF6}"/>
+    <hyperlink ref="J12" r:id="rId5" xr:uid="{0FFFE596-9D27-8E46-81F6-47EC40551829}"/>
+    <hyperlink ref="J14" r:id="rId6" xr:uid="{E4AFB121-AC94-9A40-9754-2ABE5F0FF62D}"/>
+    <hyperlink ref="J10" r:id="rId7" xr:uid="{BDC7566B-767F-7F4D-8207-6468A91B52B9}"/>
+    <hyperlink ref="J16" r:id="rId8" xr:uid="{56D6BF37-12C0-C549-90EF-818A49E7F812}"/>
+    <hyperlink ref="L16" r:id="rId9" xr:uid="{DFE7ED47-1E80-4C4A-B9FF-CC1CF7D82782}"/>
+    <hyperlink ref="M16" r:id="rId10" xr:uid="{C5F203B4-DE44-3E4B-8ABE-4C7780BC8975}"/>
+    <hyperlink ref="J17" r:id="rId11" xr:uid="{13B668FA-2C47-234E-ABBE-587373D1A3EB}"/>
+    <hyperlink ref="L17" r:id="rId12" display="https://www.instagram.com/__ngcanh/" xr:uid="{1271108E-21C0-2441-8F1D-CB20C3265895}"/>
+    <hyperlink ref="M17" r:id="rId13" xr:uid="{4545B075-55B6-F340-B0CE-76A745859243}"/>
+    <hyperlink ref="J18" r:id="rId14" xr:uid="{30C9467A-1FC1-274A-891D-63E183DE8E45}"/>
+    <hyperlink ref="L18" r:id="rId15" xr:uid="{B6E182F1-F988-6945-91BB-16F60925B25D}"/>
+    <hyperlink ref="M18" r:id="rId16" xr:uid="{A8F6CBE4-C55B-C440-97AC-5184728FFEC1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/thanhvien.xlsx
+++ b/thanhvien.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/howl/Documents/lxbc.online/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61822C5E-4B9B-744B-AAD8-07C75DAE8B38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{800A116D-B514-8241-ABA5-5A49FD3FE7B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="18480" windowHeight="18460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="18480" windowHeight="16860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="167">
   <si>
     <t>Họ tên</t>
   </si>
@@ -1018,7 +1018,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" zoomScale="108" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F38" sqref="F38"/>
+      <selection pane="topRight" activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2136,7 +2136,9 @@
       <c r="F38" s="3">
         <v>2025</v>
       </c>
-      <c r="G38" s="3"/>
+      <c r="G38" s="3" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
@@ -2148,7 +2150,9 @@
       <c r="F39" s="3">
         <v>2017</v>
       </c>
-      <c r="G39" s="3"/>
+      <c r="G39" s="3" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">

--- a/thanhvien.xlsx
+++ b/thanhvien.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/howl/Documents/lxbc.online/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{800A116D-B514-8241-ABA5-5A49FD3FE7B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F0381E9-6B8B-EB40-92E6-A182528B85F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="660" windowWidth="18480" windowHeight="16860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="168">
   <si>
     <t>Họ tên</t>
   </si>
@@ -536,13 +536,16 @@
     <t>Nguyễn Long Vũ</t>
   </si>
   <si>
-    <t>Peter Cương</t>
-  </si>
-  <si>
     <t>Vũ Hoàng Bảo Khôi</t>
   </si>
   <si>
     <t>Đang Cập Nhập Thêm ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vy Thị Hồng Áhh </t>
+  </si>
+  <si>
+    <t>honganh.jpg</t>
   </si>
 </sst>
 </file>
@@ -1016,9 +1019,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="108" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="108" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G39" sqref="G39"/>
+      <selection pane="topRight" activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2131,18 +2134,27 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>164</v>
+        <v>166</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="F38" s="3">
         <v>2025</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>54</v>
+        <v>107</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>22</v>
@@ -2156,7 +2168,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>54</v>

--- a/thanhvien.xlsx
+++ b/thanhvien.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/howl/Documents/lxbc.online/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F0381E9-6B8B-EB40-92E6-A182528B85F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A2B15C7-831C-3F44-8028-88CD4267232B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="660" windowWidth="18480" windowHeight="16860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="171">
   <si>
     <t>Họ tên</t>
   </si>
@@ -546,6 +546,15 @@
   </si>
   <si>
     <t>honganh.jpg</t>
+  </si>
+  <si>
+    <t>Bé Dâu</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/be.dau.599021</t>
+  </si>
+  <si>
+    <t>bedau.jpg</t>
   </si>
 </sst>
 </file>
@@ -1017,11 +1026,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S40"/>
+  <dimension ref="A1:S41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" zoomScale="108" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H39" sqref="H39"/>
+      <selection pane="topRight" activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2026,7 +2035,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>151</v>
       </c>
@@ -2049,7 +2058,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>152</v>
       </c>
@@ -2072,7 +2081,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>154</v>
       </c>
@@ -2095,7 +2104,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>161</v>
       </c>
@@ -2115,7 +2124,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>163</v>
       </c>
@@ -2132,10 +2141,13 @@
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>166</v>
       </c>
+      <c r="C38" s="3">
+        <v>2006</v>
+      </c>
       <c r="D38" s="3" t="s">
         <v>22</v>
       </c>
@@ -2152,7 +2164,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>164</v>
       </c>
@@ -2166,12 +2178,26 @@
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>165</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H41" t="s">
+        <v>170</v>
+      </c>
+      <c r="J41" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>

--- a/thanhvien.xlsx
+++ b/thanhvien.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/howl/Documents/lxbc.online/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A2B15C7-831C-3F44-8028-88CD4267232B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F34E5561-AFCE-2740-8809-A1735985D016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="660" windowWidth="18480" windowHeight="16860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -317,48 +317,12 @@
     <t>khang.jpg</t>
   </si>
   <si>
-    <t>an.jpg</t>
-  </si>
-  <si>
-    <t>phuc.jpg</t>
-  </si>
-  <si>
-    <t>thai.jpg</t>
-  </si>
-  <si>
-    <t>doan.jpg</t>
-  </si>
-  <si>
     <t>huu.jpg</t>
   </si>
   <si>
-    <t>tri.jpg</t>
-  </si>
-  <si>
-    <t>khoi.jpg</t>
-  </si>
-  <si>
-    <t>thanh.jpg</t>
-  </si>
-  <si>
-    <t>thuyen.jpg</t>
-  </si>
-  <si>
-    <t>tuananh.jpg</t>
-  </si>
-  <si>
     <t>bao.jpg</t>
   </si>
   <si>
-    <t>long.jpg</t>
-  </si>
-  <si>
-    <t>hiep.jpg</t>
-  </si>
-  <si>
-    <t>mini.jpg</t>
-  </si>
-  <si>
     <t>hoang.jpg</t>
   </si>
   <si>
@@ -371,9 +335,6 @@
     <t>Nguyễn Chánh Hoàng Quân</t>
   </si>
   <si>
-    <t>quan.jpg</t>
-  </si>
-  <si>
     <t>Hội trực</t>
   </si>
   <si>
@@ -383,9 +344,6 @@
     <t>LXBC</t>
   </si>
   <si>
-    <t>bong.jpg</t>
-  </si>
-  <si>
     <t>Pet</t>
   </si>
   <si>
@@ -404,9 +362,6 @@
     <t>Maria</t>
   </si>
   <si>
-    <t>anh.jpg</t>
-  </si>
-  <si>
     <t>https://www.facebook.com/dthngcanh</t>
   </si>
   <si>
@@ -425,9 +380,6 @@
     <t>Cao Đẳng Y Đà Lạt</t>
   </si>
   <si>
-    <t>nhu.jpg</t>
-  </si>
-  <si>
     <t>https://www.facebook.com/nhu0409</t>
   </si>
   <si>
@@ -443,9 +395,6 @@
     <t>Teresa</t>
   </si>
   <si>
-    <t>que.jpg</t>
-  </si>
-  <si>
     <t>https://www.facebook.com/nhqueee.2915</t>
   </si>
   <si>
@@ -476,9 +425,6 @@
     <t>Quản Trị Kinh Doanh</t>
   </si>
   <si>
-    <t>bao1.jpg</t>
-  </si>
-  <si>
     <t>Hà Gia Huy</t>
   </si>
   <si>
@@ -494,9 +440,6 @@
     <t>tinh.jpg</t>
   </si>
   <si>
-    <t>thien.jpg</t>
-  </si>
-  <si>
     <t>Hoàng Minh Trường</t>
   </si>
   <si>
@@ -545,16 +488,73 @@
     <t xml:space="preserve">Vy Thị Hồng Áhh </t>
   </si>
   <si>
-    <t>honganh.jpg</t>
-  </si>
-  <si>
     <t>Bé Dâu</t>
   </si>
   <si>
     <t>https://www.facebook.com/be.dau.599021</t>
   </si>
   <si>
-    <t>bedau.jpg</t>
+    <t>tri.webp</t>
+  </si>
+  <si>
+    <t>khoi.webp</t>
+  </si>
+  <si>
+    <t>phuc.webp</t>
+  </si>
+  <si>
+    <t>thai.webp</t>
+  </si>
+  <si>
+    <t>bong.webp</t>
+  </si>
+  <si>
+    <t>doan.webp</t>
+  </si>
+  <si>
+    <t>quan.webp</t>
+  </si>
+  <si>
+    <t>anh.webp</t>
+  </si>
+  <si>
+    <t>nhu.webp</t>
+  </si>
+  <si>
+    <t>que.webp</t>
+  </si>
+  <si>
+    <t>an.webp</t>
+  </si>
+  <si>
+    <t>mini.webp</t>
+  </si>
+  <si>
+    <t>thanh.webp</t>
+  </si>
+  <si>
+    <t>thuyen.webp</t>
+  </si>
+  <si>
+    <t>bao1.webp</t>
+  </si>
+  <si>
+    <t>tuananh.webp</t>
+  </si>
+  <si>
+    <t>long.webp</t>
+  </si>
+  <si>
+    <t>thien.webp</t>
+  </si>
+  <si>
+    <t>hiep.webp</t>
+  </si>
+  <si>
+    <t>bedau.webp</t>
+  </si>
+  <si>
+    <t>honganh.webp</t>
   </si>
 </sst>
 </file>
@@ -1030,7 +1030,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" zoomScale="108" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C38" sqref="C38"/>
+      <selection pane="topRight" activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1085,13 +1085,13 @@
         <v>85</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="M1" s="6" t="s">
         <v>84</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -1126,10 +1126,10 @@
         <v>68</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="L2" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -1186,7 +1186,7 @@
         <v>33</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>72</v>
@@ -1247,7 +1247,7 @@
         <v>33</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="2" t="s">
@@ -1278,7 +1278,7 @@
         <v>33</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>34</v>
@@ -1288,7 +1288,7 @@
       </c>
       <c r="K7" s="2"/>
       <c r="N7" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -1314,7 +1314,7 @@
         <v>33</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="2" t="s">
@@ -1345,7 +1345,7 @@
         <v>33</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>96</v>
+        <v>150</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="5" t="s">
@@ -1376,7 +1376,7 @@
         <v>33</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>97</v>
+        <v>151</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="2" t="s">
@@ -1389,7 +1389,7 @@
         <v>49</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="C11">
         <v>2007</v>
@@ -1407,7 +1407,7 @@
         <v>33</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>92</v>
+        <v>152</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="2" t="s">
@@ -1438,7 +1438,7 @@
         <v>38</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>93</v>
+        <v>153</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="5" t="s">
@@ -1448,24 +1448,24 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="F13" s="3">
         <v>2025</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>113</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
@@ -1488,10 +1488,10 @@
         <v>2023</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>94</v>
+        <v>155</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="2" t="s">
@@ -1501,7 +1501,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>11</v>
@@ -1519,18 +1519,18 @@
         <v>2025</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>109</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="C16" s="3">
         <v>2005</v>
@@ -1545,68 +1545,68 @@
         <v>2025</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>120</v>
+        <v>157</v>
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="2" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="K16" s="3"/>
       <c r="L16" s="2" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="N16" s="3"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="C17" s="3">
         <v>2002</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="F17" s="3">
         <v>2025</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>127</v>
+        <v>158</v>
       </c>
       <c r="I17" s="3"/>
       <c r="J17" s="2" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="K17" s="3"/>
       <c r="L17" s="2" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="N17" s="3"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="C18" s="3">
         <v>2005</v>
@@ -1621,21 +1621,21 @@
         <v>2025</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>133</v>
+        <v>159</v>
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="2" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="K18" s="3"/>
       <c r="L18" s="2" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="N18" s="3"/>
     </row>
@@ -1662,7 +1662,7 @@
         <v>24</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>91</v>
+        <v>160</v>
       </c>
       <c r="I19" s="3"/>
       <c r="J19" s="5" t="s">
@@ -1693,7 +1693,7 @@
         <v>54</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>104</v>
+        <v>161</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>75</v>
@@ -1723,7 +1723,7 @@
         <v>54</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>98</v>
+        <v>162</v>
       </c>
       <c r="I21" s="3"/>
       <c r="J21" s="2" t="s">
@@ -1754,7 +1754,7 @@
         <v>54</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>99</v>
+        <v>163</v>
       </c>
       <c r="I22" s="3"/>
       <c r="J22" s="5"/>
@@ -1783,7 +1783,7 @@
         <v>67</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="I23" s="3"/>
       <c r="J23" s="2"/>
@@ -1812,7 +1812,7 @@
         <v>54</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>100</v>
+        <v>165</v>
       </c>
       <c r="I24" s="3"/>
       <c r="J24" s="2"/>
@@ -1841,7 +1841,7 @@
         <v>54</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>102</v>
+        <v>166</v>
       </c>
       <c r="I25" s="3"/>
       <c r="J25" s="2"/>
@@ -1857,7 +1857,7 @@
         <v>63</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="C26">
         <v>2001</v>
@@ -1875,7 +1875,7 @@
         <v>54</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="I26" s="3"/>
       <c r="J26" s="2"/>
@@ -1908,7 +1908,7 @@
         <v>67</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>103</v>
+        <v>168</v>
       </c>
       <c r="I27" s="3"/>
       <c r="J27" s="2"/>
@@ -1919,7 +1919,7 @@
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="C28" s="3">
         <v>2001</v>
@@ -1937,18 +1937,18 @@
         <v>54</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="C29" s="3">
         <v>1999</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>32</v>
@@ -1965,7 +1965,7 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>21</v>
@@ -1974,7 +1974,7 @@
         <v>2005</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>86</v>
@@ -1986,12 +1986,12 @@
         <v>54</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="C31" s="3">
         <v>2005</v>
@@ -2009,18 +2009,18 @@
         <v>54</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="C32" s="3">
         <v>2025</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="E32" s="9" t="s">
         <v>86</v>
@@ -2032,12 +2032,12 @@
         <v>54</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="C33" s="3">
         <v>2000</v>
@@ -2055,12 +2055,12 @@
         <v>54</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="C34" s="3">
         <v>2000</v>
@@ -2078,12 +2078,12 @@
         <v>54</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="C35" s="3">
         <v>2000</v>
@@ -2101,12 +2101,12 @@
         <v>54</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>22</v>
@@ -2121,12 +2121,12 @@
         <v>54</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>45</v>
@@ -2143,7 +2143,7 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="C38" s="3">
         <v>2006</v>
@@ -2158,15 +2158,15 @@
         <v>2025</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>22</v>
@@ -2180,7 +2180,7 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>54</v>
@@ -2188,16 +2188,16 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="H41" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J41" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>

--- a/thanhvien.xlsx
+++ b/thanhvien.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/howl/Documents/lxbc.online/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F34E5561-AFCE-2740-8809-A1735985D016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{574FDA2E-D9EA-154A-875B-BF40EBC74830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="660" windowWidth="18480" windowHeight="16860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -317,12 +317,48 @@
     <t>khang.jpg</t>
   </si>
   <si>
+    <t>an.jpg</t>
+  </si>
+  <si>
+    <t>phuc.jpg</t>
+  </si>
+  <si>
+    <t>thai.jpg</t>
+  </si>
+  <si>
+    <t>doan.jpg</t>
+  </si>
+  <si>
     <t>huu.jpg</t>
   </si>
   <si>
+    <t>tri.jpg</t>
+  </si>
+  <si>
+    <t>khoi.jpg</t>
+  </si>
+  <si>
+    <t>thanh.jpg</t>
+  </si>
+  <si>
+    <t>thuyen.jpg</t>
+  </si>
+  <si>
+    <t>tuananh.jpg</t>
+  </si>
+  <si>
     <t>bao.jpg</t>
   </si>
   <si>
+    <t>long.jpg</t>
+  </si>
+  <si>
+    <t>hiep.jpg</t>
+  </si>
+  <si>
+    <t>mini.jpg</t>
+  </si>
+  <si>
     <t>hoang.jpg</t>
   </si>
   <si>
@@ -335,6 +371,9 @@
     <t>Nguyễn Chánh Hoàng Quân</t>
   </si>
   <si>
+    <t>quan.jpg</t>
+  </si>
+  <si>
     <t>Hội trực</t>
   </si>
   <si>
@@ -344,6 +383,9 @@
     <t>LXBC</t>
   </si>
   <si>
+    <t>bong.jpg</t>
+  </si>
+  <si>
     <t>Pet</t>
   </si>
   <si>
@@ -362,6 +404,9 @@
     <t>Maria</t>
   </si>
   <si>
+    <t>anh.jpg</t>
+  </si>
+  <si>
     <t>https://www.facebook.com/dthngcanh</t>
   </si>
   <si>
@@ -380,6 +425,9 @@
     <t>Cao Đẳng Y Đà Lạt</t>
   </si>
   <si>
+    <t>nhu.jpg</t>
+  </si>
+  <si>
     <t>https://www.facebook.com/nhu0409</t>
   </si>
   <si>
@@ -395,6 +443,9 @@
     <t>Teresa</t>
   </si>
   <si>
+    <t>que.jpg</t>
+  </si>
+  <si>
     <t>https://www.facebook.com/nhqueee.2915</t>
   </si>
   <si>
@@ -425,6 +476,9 @@
     <t>Quản Trị Kinh Doanh</t>
   </si>
   <si>
+    <t>bao1.jpg</t>
+  </si>
+  <si>
     <t>Hà Gia Huy</t>
   </si>
   <si>
@@ -440,6 +494,9 @@
     <t>tinh.jpg</t>
   </si>
   <si>
+    <t>thien.jpg</t>
+  </si>
+  <si>
     <t>Hoàng Minh Trường</t>
   </si>
   <si>
@@ -488,80 +545,23 @@
     <t xml:space="preserve">Vy Thị Hồng Áhh </t>
   </si>
   <si>
+    <t>honganh.jpg</t>
+  </si>
+  <si>
     <t>Bé Dâu</t>
   </si>
   <si>
     <t>https://www.facebook.com/be.dau.599021</t>
   </si>
   <si>
-    <t>tri.webp</t>
-  </si>
-  <si>
-    <t>khoi.webp</t>
-  </si>
-  <si>
-    <t>phuc.webp</t>
-  </si>
-  <si>
-    <t>thai.webp</t>
-  </si>
-  <si>
-    <t>bong.webp</t>
-  </si>
-  <si>
-    <t>doan.webp</t>
-  </si>
-  <si>
-    <t>quan.webp</t>
-  </si>
-  <si>
-    <t>anh.webp</t>
-  </si>
-  <si>
-    <t>nhu.webp</t>
-  </si>
-  <si>
-    <t>que.webp</t>
-  </si>
-  <si>
-    <t>an.webp</t>
-  </si>
-  <si>
-    <t>mini.webp</t>
-  </si>
-  <si>
-    <t>thanh.webp</t>
-  </si>
-  <si>
-    <t>thuyen.webp</t>
-  </si>
-  <si>
-    <t>bao1.webp</t>
-  </si>
-  <si>
-    <t>tuananh.webp</t>
-  </si>
-  <si>
-    <t>long.webp</t>
-  </si>
-  <si>
-    <t>thien.webp</t>
-  </si>
-  <si>
-    <t>hiep.webp</t>
-  </si>
-  <si>
-    <t>bedau.webp</t>
-  </si>
-  <si>
-    <t>honganh.webp</t>
+    <t>bedau.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -602,12 +602,6 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -666,7 +660,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -679,8 +673,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1028,9 +1023,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="108" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H38" sqref="H38"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="108" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1042,7 +1037,7 @@
     <col min="5" max="5" width="19.5" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
     <col min="7" max="7" width="10.33203125" customWidth="1"/>
-    <col min="8" max="8" width="21.33203125" customWidth="1"/>
+    <col min="8" max="8" width="21.33203125" style="9" customWidth="1"/>
     <col min="9" max="9" width="19.83203125" customWidth="1"/>
     <col min="10" max="10" width="14.6640625" customWidth="1"/>
     <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
@@ -1085,13 +1080,13 @@
         <v>85</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="M1" s="6" t="s">
         <v>84</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -1116,7 +1111,7 @@
       <c r="G2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="10" t="s">
         <v>88</v>
       </c>
       <c r="I2" s="2" t="s">
@@ -1126,10 +1121,10 @@
         <v>68</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="L2" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -1154,7 +1149,7 @@
       <c r="G3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="10" t="s">
         <v>87</v>
       </c>
       <c r="I3" s="3"/>
@@ -1185,8 +1180,8 @@
       <c r="G4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>139</v>
+      <c r="H4" s="10" t="s">
+        <v>158</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>72</v>
@@ -1215,7 +1210,7 @@
       <c r="G5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="10" t="s">
         <v>90</v>
       </c>
       <c r="I5" s="3"/>
@@ -1246,8 +1241,8 @@
       <c r="G6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>94</v>
+      <c r="H6" s="10" t="s">
+        <v>106</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="2" t="s">
@@ -1277,8 +1272,8 @@
       <c r="G7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>93</v>
+      <c r="H7" s="10" t="s">
+        <v>105</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>34</v>
@@ -1288,7 +1283,7 @@
       </c>
       <c r="K7" s="2"/>
       <c r="N7" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -1313,8 +1308,8 @@
       <c r="G8" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>91</v>
+      <c r="H8" s="10" t="s">
+        <v>95</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="2" t="s">
@@ -1344,8 +1339,8 @@
       <c r="G9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>150</v>
+      <c r="H9" s="10" t="s">
+        <v>96</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="5" t="s">
@@ -1375,8 +1370,8 @@
       <c r="G10" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>151</v>
+      <c r="H10" s="10" t="s">
+        <v>97</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="2" t="s">
@@ -1389,7 +1384,7 @@
         <v>49</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="C11">
         <v>2007</v>
@@ -1406,8 +1401,8 @@
       <c r="G11" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>152</v>
+      <c r="H11" s="10" t="s">
+        <v>92</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="2" t="s">
@@ -1437,8 +1432,8 @@
       <c r="G12" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>153</v>
+      <c r="H12" s="10" t="s">
+        <v>93</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="5" t="s">
@@ -1448,24 +1443,24 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="F13" s="3">
         <v>2025</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>154</v>
+        <v>114</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
@@ -1488,10 +1483,10 @@
         <v>2023</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>155</v>
+        <v>110</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>94</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="2" t="s">
@@ -1501,7 +1496,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>11</v>
@@ -1519,18 +1514,18 @@
         <v>2025</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>156</v>
+        <v>107</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="C16" s="3">
         <v>2005</v>
@@ -1545,68 +1540,68 @@
         <v>2025</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>157</v>
+        <v>120</v>
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="2" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="K16" s="3"/>
       <c r="L16" s="2" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="N16" s="3"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="C17" s="3">
         <v>2002</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="F17" s="3">
         <v>2025</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>158</v>
+        <v>127</v>
       </c>
       <c r="I17" s="3"/>
       <c r="J17" s="2" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="K17" s="3"/>
       <c r="L17" s="2" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="N17" s="3"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="C18" s="3">
         <v>2005</v>
@@ -1621,21 +1616,21 @@
         <v>2025</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="2" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="K18" s="3"/>
       <c r="L18" s="2" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="N18" s="3"/>
     </row>
@@ -1661,8 +1656,8 @@
       <c r="G19" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H19" s="2" t="s">
-        <v>160</v>
+      <c r="H19" s="10" t="s">
+        <v>91</v>
       </c>
       <c r="I19" s="3"/>
       <c r="J19" s="5" t="s">
@@ -1692,8 +1687,8 @@
       <c r="G20" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="H20" s="2" t="s">
-        <v>161</v>
+      <c r="H20" s="10" t="s">
+        <v>104</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>75</v>
@@ -1722,8 +1717,8 @@
       <c r="G21" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="H21" s="8" t="s">
-        <v>162</v>
+      <c r="H21" s="10" t="s">
+        <v>98</v>
       </c>
       <c r="I21" s="3"/>
       <c r="J21" s="2" t="s">
@@ -1753,8 +1748,8 @@
       <c r="G22" t="s">
         <v>54</v>
       </c>
-      <c r="H22" s="2" t="s">
-        <v>163</v>
+      <c r="H22" s="10" t="s">
+        <v>99</v>
       </c>
       <c r="I22" s="3"/>
       <c r="J22" s="5"/>
@@ -1782,8 +1777,8 @@
       <c r="G23" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="H23" s="2" t="s">
-        <v>164</v>
+      <c r="H23" s="10" t="s">
+        <v>144</v>
       </c>
       <c r="I23" s="3"/>
       <c r="J23" s="2"/>
@@ -1811,8 +1806,8 @@
       <c r="G24" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="H24" s="2" t="s">
-        <v>165</v>
+      <c r="H24" s="10" t="s">
+        <v>100</v>
       </c>
       <c r="I24" s="3"/>
       <c r="J24" s="2"/>
@@ -1840,8 +1835,8 @@
       <c r="G25" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="H25" s="2" t="s">
-        <v>166</v>
+      <c r="H25" s="10" t="s">
+        <v>102</v>
       </c>
       <c r="I25" s="3"/>
       <c r="J25" s="2"/>
@@ -1857,7 +1852,7 @@
         <v>63</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="C26">
         <v>2001</v>
@@ -1874,8 +1869,8 @@
       <c r="G26" t="s">
         <v>54</v>
       </c>
-      <c r="H26" s="2" t="s">
-        <v>167</v>
+      <c r="H26" s="10" t="s">
+        <v>150</v>
       </c>
       <c r="I26" s="3"/>
       <c r="J26" s="2"/>
@@ -1907,8 +1902,8 @@
       <c r="G27" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="H27" s="2" t="s">
-        <v>168</v>
+      <c r="H27" s="10" t="s">
+        <v>103</v>
       </c>
       <c r="I27" s="3"/>
       <c r="J27" s="2"/>
@@ -1919,7 +1914,7 @@
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="C28" s="3">
         <v>2001</v>
@@ -1937,18 +1932,18 @@
         <v>54</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="C29" s="3">
         <v>1999</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>32</v>
@@ -1965,7 +1960,7 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>21</v>
@@ -1974,7 +1969,7 @@
         <v>2005</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>86</v>
@@ -1986,12 +1981,12 @@
         <v>54</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="C31" s="3">
         <v>2005</v>
@@ -2009,20 +2004,20 @@
         <v>54</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="C32" s="3">
         <v>2025</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="E32" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="E32" s="8" t="s">
         <v>86</v>
       </c>
       <c r="F32" s="3">
@@ -2032,12 +2027,12 @@
         <v>54</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="C33" s="3">
         <v>2000</v>
@@ -2055,12 +2050,12 @@
         <v>54</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="C34" s="3">
         <v>2000</v>
@@ -2078,12 +2073,12 @@
         <v>54</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="C35" s="3">
         <v>2000</v>
@@ -2101,12 +2096,12 @@
         <v>54</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>22</v>
@@ -2121,17 +2116,17 @@
         <v>54</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E37" s="9" t="s">
+      <c r="E37" s="8" t="s">
         <v>86</v>
       </c>
       <c r="F37" s="3">
@@ -2143,7 +2138,7 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="C38" s="3">
         <v>2006</v>
@@ -2158,15 +2153,15 @@
         <v>2025</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>22</v>
@@ -2180,7 +2175,7 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>54</v>
@@ -2188,16 +2183,16 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="H41" t="s">
+        <v>114</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="J41" t="s">
         <v>169</v>
-      </c>
-      <c r="J41" t="s">
-        <v>149</v>
       </c>
     </row>
   </sheetData>

--- a/thanhvien.xlsx
+++ b/thanhvien.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/howl/Documents/lxbc.online/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{574FDA2E-D9EA-154A-875B-BF40EBC74830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C10A53-3DF1-8D47-8914-F8AA4A06EFCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="18480" windowHeight="16860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="29400" windowHeight="18460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="176">
   <si>
     <t>Họ tên</t>
   </si>
@@ -533,15 +533,9 @@
     <t>duc.jpg</t>
   </si>
   <si>
-    <t>Nguyễn Long Vũ</t>
-  </si>
-  <si>
     <t>Vũ Hoàng Bảo Khôi</t>
   </si>
   <si>
-    <t>Đang Cập Nhập Thêm ...</t>
-  </si>
-  <si>
     <t xml:space="preserve">Vy Thị Hồng Áhh </t>
   </si>
   <si>
@@ -555,6 +549,27 @@
   </si>
   <si>
     <t>bedau.jpg</t>
+  </si>
+  <si>
+    <t>Nguyễn Hoàng Vũ</t>
+  </si>
+  <si>
+    <t>Bon Khô Diệp</t>
+  </si>
+  <si>
+    <t>Đông Phương Học</t>
+  </si>
+  <si>
+    <t>Phạm Tuấn Anh</t>
+  </si>
+  <si>
+    <t>Trần Đình Thái</t>
+  </si>
+  <si>
+    <t>Lê Minh Hoà</t>
+  </si>
+  <si>
+    <t>Nguyễn Vũ Hoàng Nguyên</t>
   </si>
 </sst>
 </file>
@@ -660,7 +675,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -674,7 +689,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -1021,11 +1035,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S41"/>
+  <dimension ref="A1:S45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="108" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1037,7 +1051,7 @@
     <col min="5" max="5" width="19.5" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
     <col min="7" max="7" width="10.33203125" customWidth="1"/>
-    <col min="8" max="8" width="21.33203125" style="9" customWidth="1"/>
+    <col min="8" max="8" width="21.33203125" customWidth="1"/>
     <col min="9" max="9" width="19.83203125" customWidth="1"/>
     <col min="10" max="10" width="14.6640625" customWidth="1"/>
     <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
@@ -1111,7 +1125,7 @@
       <c r="G2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="9" t="s">
         <v>88</v>
       </c>
       <c r="I2" s="2" t="s">
@@ -1149,7 +1163,7 @@
       <c r="G3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="9" t="s">
         <v>87</v>
       </c>
       <c r="I3" s="3"/>
@@ -1180,7 +1194,7 @@
       <c r="G4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="9" t="s">
         <v>158</v>
       </c>
       <c r="J4" s="2" t="s">
@@ -1210,7 +1224,7 @@
       <c r="G5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="9" t="s">
         <v>90</v>
       </c>
       <c r="I5" s="3"/>
@@ -1241,7 +1255,7 @@
       <c r="G6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="9" t="s">
         <v>106</v>
       </c>
       <c r="I6" s="3"/>
@@ -1272,7 +1286,7 @@
       <c r="G7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="9" t="s">
         <v>105</v>
       </c>
       <c r="I7" s="2" t="s">
@@ -1308,7 +1322,7 @@
       <c r="G8" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" s="9" t="s">
         <v>95</v>
       </c>
       <c r="I8" s="3"/>
@@ -1339,7 +1353,7 @@
       <c r="G9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="H9" s="9" t="s">
         <v>96</v>
       </c>
       <c r="I9" s="3"/>
@@ -1370,7 +1384,7 @@
       <c r="G10" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="9" t="s">
         <v>97</v>
       </c>
       <c r="I10" s="3"/>
@@ -1401,7 +1415,7 @@
       <c r="G11" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="9" t="s">
         <v>92</v>
       </c>
       <c r="I11" s="3"/>
@@ -1432,7 +1446,7 @@
       <c r="G12" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H12" s="9" t="s">
         <v>93</v>
       </c>
       <c r="I12" s="3"/>
@@ -1459,7 +1473,7 @@
       <c r="G13" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="H13" s="9" t="s">
         <v>113</v>
       </c>
     </row>
@@ -1485,7 +1499,7 @@
       <c r="G14" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="H14" s="10" t="s">
+      <c r="H14" s="9" t="s">
         <v>94</v>
       </c>
       <c r="I14" s="3"/>
@@ -1516,7 +1530,7 @@
       <c r="G15" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="H15" s="10" t="s">
+      <c r="H15" s="9" t="s">
         <v>109</v>
       </c>
     </row>
@@ -1656,7 +1670,7 @@
       <c r="G19" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H19" s="10" t="s">
+      <c r="H19" s="9" t="s">
         <v>91</v>
       </c>
       <c r="I19" s="3"/>
@@ -1687,7 +1701,7 @@
       <c r="G20" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="H20" s="10" t="s">
+      <c r="H20" s="9" t="s">
         <v>104</v>
       </c>
       <c r="J20" s="2" t="s">
@@ -1717,7 +1731,7 @@
       <c r="G21" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="H21" s="10" t="s">
+      <c r="H21" s="9" t="s">
         <v>98</v>
       </c>
       <c r="I21" s="3"/>
@@ -1748,7 +1762,7 @@
       <c r="G22" t="s">
         <v>54</v>
       </c>
-      <c r="H22" s="10" t="s">
+      <c r="H22" s="9" t="s">
         <v>99</v>
       </c>
       <c r="I22" s="3"/>
@@ -1777,7 +1791,7 @@
       <c r="G23" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="H23" s="10" t="s">
+      <c r="H23" s="9" t="s">
         <v>144</v>
       </c>
       <c r="I23" s="3"/>
@@ -1806,7 +1820,7 @@
       <c r="G24" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="H24" s="10" t="s">
+      <c r="H24" s="9" t="s">
         <v>100</v>
       </c>
       <c r="I24" s="3"/>
@@ -1835,7 +1849,7 @@
       <c r="G25" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="H25" s="10" t="s">
+      <c r="H25" s="9" t="s">
         <v>102</v>
       </c>
       <c r="I25" s="3"/>
@@ -1869,7 +1883,7 @@
       <c r="G26" t="s">
         <v>54</v>
       </c>
-      <c r="H26" s="10" t="s">
+      <c r="H26" s="9" t="s">
         <v>150</v>
       </c>
       <c r="I26" s="3"/>
@@ -1902,7 +1916,7 @@
       <c r="G27" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="H27" s="10" t="s">
+      <c r="H27" s="9" t="s">
         <v>103</v>
       </c>
       <c r="I27" s="3"/>
@@ -1916,6 +1930,9 @@
       <c r="A28" s="3" t="s">
         <v>137</v>
       </c>
+      <c r="B28" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="C28" s="3">
         <v>2001</v>
       </c>
@@ -1939,6 +1956,9 @@
       <c r="A29" s="3" t="s">
         <v>140</v>
       </c>
+      <c r="B29" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="C29" s="3">
         <v>1999</v>
       </c>
@@ -1988,6 +2008,9 @@
       <c r="A31" s="3" t="s">
         <v>145</v>
       </c>
+      <c r="B31" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="C31" s="3">
         <v>2005</v>
       </c>
@@ -2011,6 +2034,9 @@
       <c r="A32" s="3" t="s">
         <v>147</v>
       </c>
+      <c r="B32" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="C32" s="3">
         <v>2025</v>
       </c>
@@ -2034,6 +2060,9 @@
       <c r="A33" s="3" t="s">
         <v>151</v>
       </c>
+      <c r="B33" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="C33" s="3">
         <v>2000</v>
       </c>
@@ -2057,6 +2086,9 @@
       <c r="A34" s="3" t="s">
         <v>152</v>
       </c>
+      <c r="B34" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="C34" s="3">
         <v>2000</v>
       </c>
@@ -2080,6 +2112,9 @@
       <c r="A35" s="3" t="s">
         <v>154</v>
       </c>
+      <c r="B35" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="C35" s="3">
         <v>2000</v>
       </c>
@@ -2103,6 +2138,9 @@
       <c r="A36" s="3" t="s">
         <v>161</v>
       </c>
+      <c r="B36" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="D36" s="3" t="s">
         <v>22</v>
       </c>
@@ -2110,7 +2148,7 @@
         <v>32</v>
       </c>
       <c r="F36" s="3">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="G36" s="3" t="s">
         <v>54</v>
@@ -2121,7 +2159,10 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>163</v>
+        <v>169</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>45</v>
@@ -2130,7 +2171,7 @@
         <v>86</v>
       </c>
       <c r="F37" s="3">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>54</v>
@@ -2138,7 +2179,7 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C38" s="3">
         <v>2006</v>
@@ -2156,16 +2197,25 @@
         <v>107</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" s="3">
+        <v>1998</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="E39" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="F39" s="3">
         <v>2017</v>
       </c>
@@ -2175,7 +2225,22 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>165</v>
+        <v>173</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" s="3">
+        <v>2001</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F40" s="3">
+        <v>2019</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>54</v>
@@ -2183,16 +2248,99 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="H41" s="9" t="s">
+      <c r="H41" t="s">
+        <v>168</v>
+      </c>
+      <c r="J41" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="J41" t="s">
-        <v>169</v>
+      <c r="B42" t="s">
+        <v>29</v>
+      </c>
+      <c r="C42">
+        <v>2001</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E42" t="s">
+        <v>32</v>
+      </c>
+      <c r="F42" s="3">
+        <v>2019</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C43">
+        <v>2002</v>
+      </c>
+      <c r="F43" s="3">
+        <v>2019</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B44" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44">
+        <v>1998</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E44" t="s">
+        <v>32</v>
+      </c>
+      <c r="F44" s="3">
+        <v>2017</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B45" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45">
+        <v>2001</v>
+      </c>
+      <c r="D45" t="s">
+        <v>171</v>
+      </c>
+      <c r="E45" t="s">
+        <v>32</v>
+      </c>
+      <c r="F45" s="3">
+        <v>2019</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/thanhvien.xlsx
+++ b/thanhvien.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11214"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10511"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/howl/Documents/lxbc.online/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/howl/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C10A53-3DF1-8D47-8914-F8AA4A06EFCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D611F83-4C84-AA45-99FD-61F20B4B94A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="29400" windowHeight="18460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="29400" windowHeight="16880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1037,9 +1038,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H43" sqref="H43"/>
+      <selection pane="topRight" activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1479,328 +1480,211 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14">
-        <v>2005</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14">
-        <v>2023</v>
+        <v>166</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="I14" s="3"/>
-      <c r="J14" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="K14" s="2"/>
+        <v>114</v>
+      </c>
+      <c r="H14" t="s">
+        <v>168</v>
+      </c>
+      <c r="J14" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>108</v>
+        <v>43</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="3">
-        <v>2006</v>
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>2005</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="3">
-        <v>2025</v>
+      <c r="F15">
+        <v>2023</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>109</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K15" s="2"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C16" s="3">
-        <v>2005</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16" s="3">
-        <v>2025</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="I16" s="3"/>
-      <c r="J16" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="K16" s="3"/>
-      <c r="L16" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="N16" s="3"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="9"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C17" s="3">
-        <v>2002</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="F17" s="3">
-        <v>2025</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>127</v>
-      </c>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
       <c r="I17" s="3"/>
-      <c r="J17" s="2" t="s">
-        <v>128</v>
-      </c>
+      <c r="J17" s="2"/>
       <c r="K17" s="3"/>
-      <c r="L17" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>130</v>
-      </c>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
       <c r="N17" s="3"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C18" s="3">
-        <v>2005</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18" s="3">
-        <v>2025</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>133</v>
-      </c>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
       <c r="I18" s="3"/>
-      <c r="J18" s="2" t="s">
-        <v>134</v>
-      </c>
+      <c r="J18" s="2"/>
       <c r="K18" s="3"/>
-      <c r="L18" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>136</v>
-      </c>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
       <c r="N18" s="3"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19">
-        <v>2006</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F19">
-        <v>2024</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>91</v>
-      </c>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
       <c r="I19" s="3"/>
-      <c r="J19" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="K19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="3"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20">
-        <v>2004</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="F20">
-        <v>2025</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="K20" s="2"/>
+      <c r="A20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="4">
-        <v>2002</v>
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>2006</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F21" s="4">
-        <v>2020</v>
+        <v>23</v>
+      </c>
+      <c r="F21">
+        <v>2024</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="I21" s="3"/>
-      <c r="J21" s="2" t="s">
-        <v>70</v>
+      <c r="J21" s="5" t="s">
+        <v>74</v>
       </c>
       <c r="K21" s="2"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="3">
-        <v>2005</v>
+        <v>26</v>
+      </c>
+      <c r="C22">
+        <v>2004</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F22" s="3">
-        <v>2024</v>
-      </c>
-      <c r="G22" t="s">
+        <v>86</v>
+      </c>
+      <c r="F22">
+        <v>2025</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>54</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="I22" s="3"/>
-      <c r="J22" s="5"/>
+        <v>104</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="K22" s="2"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="3">
-        <v>2006</v>
+        <v>52</v>
+      </c>
+      <c r="C23" s="4">
+        <v>2002</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F23" s="3">
-        <v>2024</v>
+      <c r="F23" s="4">
+        <v>2020</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>144</v>
+        <v>98</v>
       </c>
       <c r="I23" s="3"/>
-      <c r="J23" s="2"/>
+      <c r="J23" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="K23" s="2"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>15</v>
@@ -1809,48 +1693,48 @@
         <v>2005</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>32</v>
       </c>
       <c r="F24" s="3">
-        <v>2023</v>
-      </c>
-      <c r="G24" s="3" t="s">
+        <v>2024</v>
+      </c>
+      <c r="G24" t="s">
         <v>54</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I24" s="3"/>
-      <c r="J24" s="2"/>
+      <c r="J24" s="5"/>
       <c r="K24" s="2"/>
     </row>
     <row r="25" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C25" s="3">
-        <v>2000</v>
+        <v>2006</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>32</v>
       </c>
       <c r="F25" s="3">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>102</v>
+        <v>144</v>
       </c>
       <c r="I25" s="3"/>
       <c r="J25" s="2"/>
@@ -1862,32 +1746,33 @@
       <c r="S25" s="3"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>63</v>
+      <c r="A26" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C26">
-        <v>2001</v>
-      </c>
-      <c r="D26" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="3">
+        <v>2005</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F26">
-        <v>2019</v>
-      </c>
-      <c r="G26" t="s">
+      <c r="F26" s="3">
+        <v>2023</v>
+      </c>
+      <c r="G26" s="3" t="s">
         <v>54</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="I26" s="3"/>
       <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
@@ -1896,154 +1781,159 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="C27" s="3">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>32</v>
       </c>
       <c r="F27" s="3">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I27" s="3"/>
       <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
       <c r="R27" s="3"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>137</v>
+      <c r="A28" t="s">
+        <v>63</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" s="3">
+        <v>138</v>
+      </c>
+      <c r="C28">
         <v>2001</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
       </c>
-      <c r="E28" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="F28" s="3">
+      <c r="E28" t="s">
+        <v>32</v>
+      </c>
+      <c r="F28">
         <v>2019</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="G28" t="s">
         <v>54</v>
       </c>
-      <c r="H28" s="3" t="s">
-        <v>139</v>
-      </c>
+      <c r="H28" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="I28" s="3"/>
+      <c r="J28" s="2"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>140</v>
+        <v>64</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="C29" s="3">
-        <v>1999</v>
+        <v>2002</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>141</v>
+        <v>66</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>32</v>
       </c>
       <c r="F29" s="3">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>89</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="I29" s="3"/>
+      <c r="J29" s="2"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C30" s="3">
-        <v>2005</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>143</v>
+        <v>2001</v>
+      </c>
+      <c r="D30" t="s">
+        <v>22</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>86</v>
       </c>
       <c r="F30" s="3">
-        <v>2023</v>
+        <v>2019</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>54</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>101</v>
+        <v>139</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C31" s="3">
-        <v>2005</v>
-      </c>
-      <c r="D31" t="s">
-        <v>22</v>
+        <v>1999</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>141</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="F31" s="3">
-        <v>2023</v>
+        <v>2017</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>54</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>146</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C32" s="3">
-        <v>2025</v>
+        <v>2005</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="E32" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>86</v>
       </c>
       <c r="F32" s="3">
@@ -2053,73 +1943,73 @@
         <v>54</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C33" s="3">
-        <v>2000</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>30</v>
+        <v>2005</v>
+      </c>
+      <c r="D33" t="s">
+        <v>22</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="F33" s="3">
-        <v>2018</v>
+        <v>2023</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>54</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C34" s="3">
-        <v>2000</v>
+        <v>2025</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>32</v>
+        <v>148</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>86</v>
       </c>
       <c r="F34" s="3">
-        <v>2018</v>
+        <v>2023</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>54</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C35" s="3">
         <v>2000</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>32</v>
@@ -2131,44 +2021,50 @@
         <v>54</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="C36" s="3">
+        <v>2000</v>
+      </c>
       <c r="D36" s="3" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>32</v>
       </c>
       <c r="F36" s="3">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G36" s="3" t="s">
         <v>54</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="C37" s="3">
+        <v>2000</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>86</v>
+        <v>53</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="F37" s="3">
         <v>2018</v>
@@ -2176,13 +2072,16 @@
       <c r="G37" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H37" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C38" s="3">
-        <v>2006</v>
+        <v>161</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>22</v>
@@ -2191,47 +2090,44 @@
         <v>32</v>
       </c>
       <c r="F38" s="3">
-        <v>2025</v>
+        <v>2019</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>107</v>
+        <v>54</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C39" s="3">
-        <v>1998</v>
-      </c>
       <c r="D39" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>32</v>
+        <v>45</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>86</v>
       </c>
       <c r="F39" s="3">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C40" s="3">
-        <v>2001</v>
+        <v>1998</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>22</v>
@@ -2240,27 +2136,36 @@
         <v>32</v>
       </c>
       <c r="F40" s="3">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>166</v>
+        <v>173</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" s="3">
+        <v>2001</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F41" s="3">
+        <v>2019</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="H41" t="s">
-        <v>168</v>
-      </c>
-      <c r="J41" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>170</v>
       </c>
@@ -2283,7 +2188,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>172</v>
       </c>
@@ -2297,7 +2202,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>174</v>
       </c>
@@ -2320,7 +2225,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>175</v>
       </c>
@@ -2344,8 +2249,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N40">
-    <sortCondition descending="1" ref="G1:G40"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N45">
+    <sortCondition descending="1" ref="G9:G45"/>
   </sortState>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
@@ -2354,19 +2259,199 @@
     <hyperlink ref="I2" r:id="rId3" xr:uid="{7BDE9B62-5028-5C45-BB13-E49306AC39ED}"/>
     <hyperlink ref="J7" r:id="rId4" xr:uid="{BFBD9656-719D-B14E-8D46-D2722CC24BF6}"/>
     <hyperlink ref="J12" r:id="rId5" xr:uid="{0FFFE596-9D27-8E46-81F6-47EC40551829}"/>
-    <hyperlink ref="J14" r:id="rId6" xr:uid="{E4AFB121-AC94-9A40-9754-2ABE5F0FF62D}"/>
+    <hyperlink ref="J15" r:id="rId6" xr:uid="{E4AFB121-AC94-9A40-9754-2ABE5F0FF62D}"/>
     <hyperlink ref="J10" r:id="rId7" xr:uid="{BDC7566B-767F-7F4D-8207-6468A91B52B9}"/>
-    <hyperlink ref="J16" r:id="rId8" xr:uid="{56D6BF37-12C0-C549-90EF-818A49E7F812}"/>
-    <hyperlink ref="L16" r:id="rId9" xr:uid="{DFE7ED47-1E80-4C4A-B9FF-CC1CF7D82782}"/>
-    <hyperlink ref="M16" r:id="rId10" xr:uid="{C5F203B4-DE44-3E4B-8ABE-4C7780BC8975}"/>
-    <hyperlink ref="J17" r:id="rId11" xr:uid="{13B668FA-2C47-234E-ABBE-587373D1A3EB}"/>
-    <hyperlink ref="L17" r:id="rId12" display="https://www.instagram.com/__ngcanh/" xr:uid="{1271108E-21C0-2441-8F1D-CB20C3265895}"/>
-    <hyperlink ref="M17" r:id="rId13" xr:uid="{4545B075-55B6-F340-B0CE-76A745859243}"/>
-    <hyperlink ref="J18" r:id="rId14" xr:uid="{30C9467A-1FC1-274A-891D-63E183DE8E45}"/>
-    <hyperlink ref="L18" r:id="rId15" xr:uid="{B6E182F1-F988-6945-91BB-16F60925B25D}"/>
-    <hyperlink ref="M18" r:id="rId16" xr:uid="{A8F6CBE4-C55B-C440-97AC-5184728FFEC1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{438CCC3D-322A-2D4F-884B-EE46C9CC0712}">
+  <dimension ref="A1:N5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="3">
+        <v>2006</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="3">
+        <v>2025</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="3">
+        <v>2005</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="3">
+        <v>2025</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="I2" s="3"/>
+      <c r="J2" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="K2" s="3"/>
+      <c r="L2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="N2" s="3"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2002</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F3" s="3">
+        <v>2025</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K3" s="3"/>
+      <c r="L3" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="N3" s="3"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2005</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="3">
+        <v>2025</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="K4" s="3"/>
+      <c r="L4" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="N4" s="3"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2006</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="3">
+        <v>2025</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="J2" r:id="rId1" xr:uid="{481CFF35-8AC3-4240-A387-BC07CE2E5852}"/>
+    <hyperlink ref="L2" r:id="rId2" xr:uid="{46A519C8-A1A0-DB4B-8536-88DBA76C7839}"/>
+    <hyperlink ref="M2" r:id="rId3" xr:uid="{B1E15864-D69D-604E-BDF0-9F3CAFCF2B36}"/>
+    <hyperlink ref="J3" r:id="rId4" xr:uid="{4B5BD0D2-A6E2-5F46-B284-6CD706E3DD34}"/>
+    <hyperlink ref="L3" r:id="rId5" display="https://www.instagram.com/__ngcanh/" xr:uid="{6FBFCEC7-9A16-CC43-A781-3E5ACD599B2C}"/>
+    <hyperlink ref="M3" r:id="rId6" xr:uid="{F0A0CE99-8BEB-7A44-8B95-AE58B654EE9C}"/>
+    <hyperlink ref="J4" r:id="rId7" xr:uid="{C602FBCC-4D12-5749-8E51-53C320E7B9B6}"/>
+    <hyperlink ref="L4" r:id="rId8" xr:uid="{6D81C601-880A-8C44-81A9-63F1E60C1501}"/>
+    <hyperlink ref="M4" r:id="rId9" xr:uid="{FE5DCD9C-0625-6944-8380-E2DDAF612A5B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>